--- a/weather_data (2).xlsx
+++ b/weather_data (2).xlsx
@@ -376,10 +376,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D8"/>
+  <dimension ref="A1:D9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C6" sqref="C6"/>
+      <selection activeCell="I7" sqref="I7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -450,27 +450,18 @@
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" s="1">
-        <v>42740</v>
-      </c>
-      <c r="B6">
-        <v>32</v>
-      </c>
-      <c r="D6" t="s">
-        <v>4</v>
+        <v>42739</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" s="1">
-        <v>42741</v>
+        <v>42740</v>
       </c>
       <c r="B7">
-        <v>31</v>
-      </c>
-      <c r="C7">
-        <v>2</v>
+        <v>32</v>
       </c>
       <c r="D7" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
@@ -478,9 +469,23 @@
         <v>42741</v>
       </c>
       <c r="B8">
+        <v>31</v>
+      </c>
+      <c r="C8">
+        <v>2</v>
+      </c>
+      <c r="D8" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A9" s="1">
+        <v>42741</v>
+      </c>
+      <c r="B9">
         <v>34</v>
       </c>
-      <c r="C8">
+      <c r="C9">
         <v>5</v>
       </c>
     </row>
